--- a/business Stats/For next.xlsx
+++ b/business Stats/For next.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ujwal\git\business Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C5FBF-57E5-4FE4-8639-3BDCCD9E549A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F0B148-32D8-4DD2-963F-CA02413A9EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A855EB1F-46E9-4595-9D68-5E34F1476A7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A855EB1F-46E9-4595-9D68-5E34F1476A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1626,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37297F45-5377-4BEC-A5D7-63D8BDE6217F}">
   <dimension ref="A2:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
